--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Yearly Results of Dev Information Technology(in Rs. Cr.)</t>
   </si>
@@ -116,6 +116,36 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>43.31</t>
+  </si>
+  <si>
+    <t>44.66</t>
+  </si>
+  <si>
+    <t>56.52</t>
+  </si>
+  <si>
+    <t>66.97</t>
+  </si>
+  <si>
+    <t>72.79</t>
+  </si>
+  <si>
+    <t>66.13</t>
+  </si>
+  <si>
+    <t>84.33</t>
+  </si>
+  <si>
+    <t>99.03</t>
+  </si>
+  <si>
+    <t>121.97</t>
+  </si>
+  <si>
+    <t>157.28</t>
   </si>
 </sst>
 </file>
@@ -557,8 +587,8 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>43.31</v>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>44.48</v>
@@ -631,8 +661,8 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>44.66</v>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
       <c r="C3">
         <v>44.93</v>
@@ -705,8 +735,8 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>56.52</v>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
       <c r="C4">
         <v>56.52</v>
@@ -779,8 +809,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>66.97</v>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
       <c r="C5">
         <v>66.97</v>
@@ -853,14 +883,14 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>72.79000000000001</v>
+      <c r="B6" t="s">
+        <v>38</v>
       </c>
       <c r="C6">
         <v>72.79000000000001</v>
       </c>
       <c r="D6">
-        <v>41.87833333333333</v>
+        <v>41.88</v>
       </c>
       <c r="E6">
         <v>0.86</v>
@@ -927,14 +957,14 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>66.13</v>
+      <c r="B7" t="s">
+        <v>39</v>
       </c>
       <c r="C7">
         <v>66.13</v>
       </c>
       <c r="D7">
-        <v>41.87833333333333</v>
+        <v>41.88</v>
       </c>
       <c r="E7">
         <v>-1.63</v>
@@ -1001,14 +1031,14 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>84.33</v>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
       <c r="C8">
         <v>84.33</v>
       </c>
       <c r="D8">
-        <v>41.87833333333333</v>
+        <v>41.88</v>
       </c>
       <c r="E8">
         <v>-2.91</v>
@@ -1075,14 +1105,14 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>99.03</v>
+      <c r="B9" t="s">
+        <v>41</v>
       </c>
       <c r="C9">
         <v>99.03</v>
       </c>
       <c r="D9">
-        <v>41.87833333333333</v>
+        <v>41.88</v>
       </c>
       <c r="E9">
         <v>3.93</v>
@@ -1149,8 +1179,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>121.97</v>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
       <c r="C10">
         <v>121.97</v>
@@ -1223,8 +1253,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>157.28</v>
+      <c r="B11" t="s">
+        <v>43</v>
       </c>
       <c r="C11">
         <v>157.28</v>
